--- a/MAP/FinalMap-abcnorio.xlsx
+++ b/MAP/FinalMap-abcnorio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="900" windowWidth="24500" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>Mapping</t>
   </si>
@@ -315,7 +315,7 @@
     <t>Set to yes to save the data spreadsheet or no to delete it from the server after import</t>
   </si>
   <si>
-    <t>FinalMap-carnegie</t>
+    <t>FinalMap-abcnorio</t>
   </si>
 </sst>
 </file>
@@ -709,8 +709,8 @@
   <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,13 +1242,10 @@
     </row>
     <row r="16" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B16" s="16">
         <v>15</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
@@ -1667,9 +1664,15 @@
       <c r="Z28" s="10"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="10">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>

--- a/MAP/FinalMap-abcnorio.xlsx
+++ b/MAP/FinalMap-abcnorio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="6660" yWindow="2080" windowWidth="24500" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
   <si>
     <t>Mapping</t>
   </si>
@@ -709,18 +709,18 @@
   <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="39" style="11" customWidth="1"/>
-    <col min="4" max="4" width="47.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="11" customWidth="1"/>
     <col min="7" max="7" width="27.1640625" style="11" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="11" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" style="11" customWidth="1"/>
@@ -891,9 +891,7 @@
       <c r="B5" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -984,13 +982,10 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -1145,15 +1140,11 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B13" s="16">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1179,10 +1170,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B14" s="16">
         <v>13</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -1210,12 +1204,14 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B15" s="17">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1240,7 +1236,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1249,12 +1245,6 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="J16" s="2"/>
@@ -1313,8 +1303,8 @@
       <c r="B18" s="16">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>61</v>
+      <c r="C18" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1641,8 +1631,6 @@
         <v>59</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -1663,7 +1651,7 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>0</v>
       </c>
@@ -1675,8 +1663,12 @@
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
